--- a/Tasks_Examples.xlsx
+++ b/Tasks_Examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://masseyhighschoolnz-my.sharepoint.com/personal/hossaina3745_masseyhigh_school_nz/Documents/2025 TCCOM/Recipe costs (assesment)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="690" documentId="8_{3E261E29-A1DC-4AC7-9AE9-7BE6C2A75354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBCF1CEB-05E8-4025-A5BF-6BA8B4C99983}"/>
+  <xr:revisionPtr revIDLastSave="691" documentId="8_{3E261E29-A1DC-4AC7-9AE9-7BE6C2A75354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{312DF900-A3AB-478C-AFFE-E114EE51F12D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8355E7AF-B006-48C4-BF9B-25D6A2537B13}"/>
   </bookViews>
@@ -735,7 +735,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="23">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J2" s="27" t="s">
         <v>12</v>
@@ -1002,7 +1002,7 @@
       <c r="G16" s="28"/>
       <c r="H16" s="26">
         <f>H14/B2</f>
-        <v>0.7</v>
+        <v>3.4999999999999996E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1018,6 +1018,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005BA463C036C06F4F95EEE3DD0F4493E9" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="25aed4aa70de01e274ca06c80e31bb12">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2ba0c6a2-e197-4036-966a-a529f7e95fa3" xmlns:ns4="e03aa4bf-b6ec-416e-afe3-ff8a06fe72c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="12385f472dc4d7d3e3f800da863c87cd" ns3:_="" ns4:_="">
     <xsd:import namespace="2ba0c6a2-e197-4036-966a-a529f7e95fa3"/>
@@ -1240,22 +1255,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A591B0A6-E1E7-46D9-954A-504B018E464E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFB6493B-6CF8-4398-8D4D-A9E17E83D758}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0F04F32-E9AB-4361-B681-388B8D86E463}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1272,21 +1289,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFB6493B-6CF8-4398-8D4D-A9E17E83D758}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A591B0A6-E1E7-46D9-954A-504B018E464E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Tasks_Examples.xlsx
+++ b/Tasks_Examples.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://masseyhighschoolnz-my.sharepoint.com/personal/hossaina3745_masseyhigh_school_nz/Documents/2025 TCCOM/Recipe costs (assesment)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="691" documentId="8_{3E261E29-A1DC-4AC7-9AE9-7BE6C2A75354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{312DF900-A3AB-478C-AFFE-E114EE51F12D}"/>
+  <xr:revisionPtr revIDLastSave="794" documentId="8_{3E261E29-A1DC-4AC7-9AE9-7BE6C2A75354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33EAB61F-5969-4D04-B87F-11EA7D39A59B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8355E7AF-B006-48C4-BF9B-25D6A2537B13}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Servings</t>
   </si>
@@ -95,10 +95,43 @@
     </r>
   </si>
   <si>
-    <t>Flour</t>
-  </si>
-  <si>
-    <t>Sugar</t>
+    <t>Noodle</t>
+  </si>
+  <si>
+    <t>Ramen</t>
+  </si>
+  <si>
+    <t>Beef</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Eggs</t>
+  </si>
+  <si>
+    <t>Nori</t>
+  </si>
+  <si>
+    <t>Menma</t>
+  </si>
+  <si>
+    <t>Soy Sauce</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>Beef Stock</t>
+  </si>
+  <si>
+    <t>Total price</t>
   </si>
 </sst>
 </file>
@@ -108,7 +141,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,8 +180,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,8 +243,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -362,11 +414,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="7"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -394,6 +455,9 @@
     <xf numFmtId="8" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="2" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -406,6 +470,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,9 +480,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFE5E5"/>
       <color rgb="FFFFB3B3"/>
       <color rgb="FFFE6666"/>
-      <color rgb="FFFFE5E5"/>
       <color rgb="FFFFCDCD"/>
     </mruColors>
   </colors>
@@ -732,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53989F0C-4682-48E5-86E1-4253CFB56C21}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,17 +809,21 @@
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="22"/>
+      <c r="C1" s="34" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -762,35 +832,35 @@
       <c r="B2" s="23">
         <v>20</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
     </row>
     <row r="4" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="E4" s="30" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="E4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -814,201 +884,256 @@
       <c r="H5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="14">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F6" s="15">
-        <v>1500</v>
+        <v>2.4</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H6" s="24">
         <f>E6/F6*A6</f>
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
+        <v>20</v>
+      </c>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="16">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F7" s="17">
-        <v>2500</v>
+        <v>4</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H7" s="25">
         <f t="shared" ref="H7:H12" si="0">E7/F7*A7</f>
-        <v>0.2</v>
-      </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
+        <v>40</v>
+      </c>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="E8" s="18"/>
+        <v>17</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="18">
+        <v>20</v>
+      </c>
       <c r="F8" s="19">
-        <v>1</v>
-      </c>
-      <c r="G8" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>17</v>
+      </c>
       <c r="H8" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
+        <v>16</v>
+      </c>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="E9" s="16"/>
+        <v>18</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="16">
+        <v>48</v>
+      </c>
       <c r="F9" s="17">
-        <v>1</v>
-      </c>
-      <c r="G9" s="17"/>
+        <v>10</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="H9" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
+        <v>38.4</v>
+      </c>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="E10" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="18">
+        <v>15</v>
+      </c>
       <c r="F10" s="19">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
+        <v>12.5</v>
+      </c>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <v>1</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="E11" s="16"/>
+        <v>20</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="16">
+        <v>6.8</v>
+      </c>
       <c r="F11" s="17">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
+        <v>6.7999999999999989</v>
+      </c>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="E12" s="20"/>
+      <c r="C12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="20">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="F12" s="21">
+        <v>500</v>
+      </c>
+      <c r="G12" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="21"/>
       <c r="H12" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G14" s="3" t="s">
+        <v>2.64</v>
+      </c>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
+        <v>500</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="29">
+        <v>4.7</v>
+      </c>
+      <c r="F13" s="28">
+        <v>1</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="25">
+        <f>E13/2</f>
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="35">
+        <f>SUM(E6:E13)</f>
+        <v>162.9</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H17" s="24">
         <f>SUM(H6:H13)</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="F16" s="28" t="s">
+        <v>138.69</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="6:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="F19" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="26">
-        <f>H14/B2</f>
-        <v>3.4999999999999996E-2</v>
+      <c r="G19" s="31"/>
+      <c r="H19" s="26">
+        <f>H17/B2</f>
+        <v>6.9344999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="J2:M12"/>
-    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F19:G19"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="E4:H4"/>
   </mergeCells>

--- a/Tasks_Examples.xlsx
+++ b/Tasks_Examples.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28926"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Recipe" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +26,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,40 +38,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
+    <t>Recipe Name</t>
+  </si>
+  <si>
+    <t>Ramen</t>
+  </si>
+  <si>
     <t>Servings</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Ingredient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Per Serve: </t>
-  </si>
-  <si>
-    <t>Cost to make</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Recipe Ingredients</t>
-  </si>
-  <si>
-    <t>Ingredient Price…</t>
-  </si>
-  <si>
-    <t>Recipe Name</t>
   </si>
   <si>
     <r>
@@ -95,43 +71,70 @@
     </r>
   </si>
   <si>
+    <t>Recipe Ingredients</t>
+  </si>
+  <si>
+    <t>Ingredient Price…</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Ingredient</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Cost to make</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
     <t>Noodle</t>
   </si>
   <si>
-    <t>Ramen</t>
-  </si>
-  <si>
     <t>Beef</t>
   </si>
   <si>
     <t>Mushroom</t>
   </si>
   <si>
-    <t>kg</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
+    <t>Beef Stock</t>
+  </si>
+  <si>
     <t>Eggs</t>
   </si>
   <si>
     <t>Nori</t>
   </si>
   <si>
+    <t>g</t>
+  </si>
+  <si>
     <t>Menma</t>
   </si>
   <si>
+    <t>ml</t>
+  </si>
+  <si>
     <t>Soy Sauce</t>
   </si>
   <si>
-    <t>ml</t>
-  </si>
-  <si>
-    <t>Beef Stock</t>
-  </si>
-  <si>
     <t>Total price</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per Serve: </t>
   </si>
 </sst>
 </file>
@@ -139,9 +142,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,22 +445,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="8" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="2" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -470,8 +475,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,14 +500,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -542,7 +541,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -648,7 +647,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -790,7 +789,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -804,7 +803,7 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
@@ -816,88 +815,88 @@
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="23.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" s="22"/>
-      <c r="C1" s="34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="C1" s="30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="21">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="23">
         <v>20</v>
       </c>
-      <c r="J2" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-    </row>
-    <row r="4" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="32" t="s">
+      <c r="J2" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+    </row>
+    <row r="4" spans="1:13" ht="26.1" customHeight="1">
+      <c r="A4" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="E4" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="E4" s="33" t="s">
+      <c r="F5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="6">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="14">
         <v>24</v>
@@ -906,26 +905,26 @@
         <v>2.4</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H6" s="24">
         <f>E6/F6*A6</f>
         <v>20</v>
       </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="8">
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" s="16">
         <v>40</v>
@@ -934,26 +933,26 @@
         <v>4</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H7" s="25">
         <f t="shared" ref="H7:H12" si="0">E7/F7*A7</f>
         <v>40</v>
       </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="8">
         <v>1.6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" s="18">
         <v>20</v>
@@ -962,26 +961,26 @@
         <v>2</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H8" s="24">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E9" s="16">
         <v>48</v>
@@ -990,24 +989,24 @@
         <v>10</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H9" s="25">
         <f t="shared" si="0"/>
         <v>38.4</v>
       </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="8">
         <v>20</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" s="18">
         <v>15</v>
@@ -1020,18 +1019,18 @@
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="8">
         <v>20</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11" s="16">
         <v>6.8</v>
@@ -1044,20 +1043,20 @@
         <f t="shared" si="0"/>
         <v>6.7999999999999989</v>
       </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="10">
         <v>300</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="20">
         <v>4.4000000000000004</v>
@@ -1066,23 +1065,23 @@
         <v>500</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H12" s="24">
         <f t="shared" si="0"/>
         <v>2.64</v>
       </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="27">
         <v>500</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>22</v>
@@ -1094,37 +1093,37 @@
         <v>1</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H13" s="25">
         <f>E13/2</f>
         <v>2.35</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="D16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="35">
+        <v>23</v>
+      </c>
+      <c r="E16" s="31">
         <f>SUM(E6:E13)</f>
         <v>162.9</v>
       </c>
     </row>
-    <row r="17" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:8" ht="15.75" thickBot="1">
       <c r="G17" s="3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H17" s="24">
         <f>SUM(H6:H13)</f>
         <v>138.69</v>
       </c>
     </row>
-    <row r="18" spans="6:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="6:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="F19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="31"/>
+    <row r="18" spans="6:8" ht="15.75" thickTop="1"/>
+    <row r="19" spans="6:8" ht="21">
+      <c r="F19" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="33"/>
       <c r="H19" s="26">
         <f>H17/B2</f>
         <v>6.9344999999999999</v>
@@ -1143,21 +1142,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005BA463C036C06F4F95EEE3DD0F4493E9" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="25aed4aa70de01e274ca06c80e31bb12">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2ba0c6a2-e197-4036-966a-a529f7e95fa3" xmlns:ns4="e03aa4bf-b6ec-416e-afe3-ff8a06fe72c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="12385f472dc4d7d3e3f800da863c87cd" ns3:_="" ns4:_="">
     <xsd:import namespace="2ba0c6a2-e197-4036-966a-a529f7e95fa3"/>
@@ -1380,38 +1364,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A591B0A6-E1E7-46D9-954A-504B018E464E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0F04F32-E9AB-4361-B681-388B8D86E463}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFB6493B-6CF8-4398-8D4D-A9E17E83D758}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFB6493B-6CF8-4398-8D4D-A9E17E83D758}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0F04F32-E9AB-4361-B681-388B8D86E463}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2ba0c6a2-e197-4036-966a-a529f7e95fa3"/>
-    <ds:schemaRef ds:uri="e03aa4bf-b6ec-416e-afe3-ff8a06fe72c1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A591B0A6-E1E7-46D9-954A-504B018E464E}"/>
 </file>